--- a/SANTO_ANGELO.xlsx
+++ b/SANTO_ANGELO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7EDAA14-0AC9-4840-B556-5BF57B6C5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DECB6A-1DEE-4E95-9C16-89C50D931055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1241,7 +1241,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F292B155-F21F-409C-BC44-2280F7A473A5}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F7947B21-D840-4241-9723-2F7109A6F84D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,10 +1271,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08BFCEB-7700-4CD5-9AC9-B5F5BFBB7278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451BBF06-D33A-4224-9E6A-CADAA61C014D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1312,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E9A800-3C03-4EBF-9F82-B38FB2241B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103AD7C5-565E-4D1F-BB73-3FCA80468E00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3A4A14-3E59-4E0B-B85C-77A3ACFAC940}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2660DF0B-67C8-4686-AE82-2EAA60C550E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729528CC-6E66-F704-38AF-E46D0772506C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F4EB2E-9840-D36C-F671-D18D8F46C97E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57CF181-D054-D50F-63A9-21141A7A6A8F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2908D0BB-7954-122C-15D3-B4E67C4CDDA3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443FC028-1EA3-609D-3C95-F71B8E63E4A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DBB007-4CC1-B58B-00C2-E5D0D9A8ACA6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56B8D68-6E4C-A80B-FEB9-8EF623DBADE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527489BF-7551-59E4-FE4A-80D68D61A4CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1524,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED358A15-FE01-57F7-4964-819349D4A4CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C07531-68B1-601C-6956-8840E79DD4EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1567,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10625913-BF75-4E8F-A4F8-B8DE0DE57AB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFB7E75-5C27-4769-AF8C-440FA15923C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1605,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B27A756-FDAB-46B6-BFD7-8E86654FD4FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E42571-7DF7-44ED-B92F-7E484F96801A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1648,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DBEE00-9E40-4AC3-B4B1-13C25B88194F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06E16B5-CA56-4998-8DCC-6B5143366C7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CA1531-F872-4AD4-BDFB-CC937E0AD6DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BDD485-31A9-43B8-82D3-78697AA44B92}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTO_ANGELO.xlsx
+++ b/SANTO_ANGELO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DECB6A-1DEE-4E95-9C16-89C50D931055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC076FD0-A262-4ECE-B482-1D9D55B33DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="309">
   <si>
     <t>COMARCA</t>
   </si>
@@ -953,15 +952,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTO ÂNGELO</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,27 +1211,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F7947B21-D840-4241-9723-2F7109A6F84D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9276F134-5034-48DA-9974-FEB334E5A6FB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1271,10 +1246,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451BBF06-D33A-4224-9E6A-CADAA61C014D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C51E31-7612-4D5D-9738-310E08034AF1}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1287,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103AD7C5-565E-4D1F-BB73-3FCA80468E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6AC80E-42BD-4C3E-9FC8-546F8E17AB8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2660DF0B-67C8-4686-AE82-2EAA60C550E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030E07F7-92F6-4186-9C9A-187E318DCBE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1369,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F4EB2E-9840-D36C-F671-D18D8F46C97E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475AB645-A9ED-A6FC-BD7E-CCA4EDCD8B5E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1443,7 +1418,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2908D0BB-7954-122C-15D3-B4E67C4CDDA3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E3FA79-2A11-D218-0080-F18F23B30A5B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,7 +1437,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DBB007-4CC1-B58B-00C2-E5D0D9A8ACA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1F99F6-9D69-F809-50C9-559A38848887}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1468,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527489BF-7551-59E4-FE4A-80D68D61A4CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C69F37-B212-9F18-4AA2-673B80B390BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,7 +1499,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C07531-68B1-601C-6956-8840E79DD4EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8E0496-E83E-BDA4-BF3B-5DC7B4A27DE6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1542,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFB7E75-5C27-4769-AF8C-440FA15923C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8679A7-7EF2-4892-A83A-3F3441946550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1580,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E42571-7DF7-44ED-B92F-7E484F96801A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FDAB29-3897-4ED0-A7B4-35A5498BF77D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1623,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06E16B5-CA56-4998-8DCC-6B5143366C7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337A3937-D9B7-48FD-92EF-06FA68994B91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BDD485-31A9-43B8-82D3-78697AA44B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B93542-EACE-497F-AEA9-983453B6CE0A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1973,98 +1948,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5631,52 +5606,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" s="33">
-        <v>174</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1.1506414495437109E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTO_ANGELO.xlsx
+++ b/SANTO_ANGELO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC076FD0-A262-4ECE-B482-1D9D55B33DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D920D44-3715-419C-B4A2-B5063AE01B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9276F134-5034-48DA-9974-FEB334E5A6FB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{8AF703AC-E11C-4807-88B3-0F5BA3783A2C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1246,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C51E31-7612-4D5D-9738-310E08034AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC9761-E271-48EE-8882-7CDEADCEB991}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6AC80E-42BD-4C3E-9FC8-546F8E17AB8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7411D91-263D-4873-9194-CD3CE42858AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030E07F7-92F6-4186-9C9A-187E318DCBE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50655DA6-9B59-446E-8DB3-5830C7EA431D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475AB645-A9ED-A6FC-BD7E-CCA4EDCD8B5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117988CE-4530-5637-62EC-9D67D3FFCC69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E3FA79-2A11-D218-0080-F18F23B30A5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD72328E-EC07-629E-D9E5-821B53CD618A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1F99F6-9D69-F809-50C9-559A38848887}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5443FE-FF39-C705-6D5B-0B8A0B292C6C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C69F37-B212-9F18-4AA2-673B80B390BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CC1F03-0F74-D405-1E36-C5DFC99E601F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8E0496-E83E-BDA4-BF3B-5DC7B4A27DE6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1494AD-0C3F-F072-4FB2-EF514395246F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8679A7-7EF2-4892-A83A-3F3441946550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88FF02E-FB90-4596-BA8D-BF2FBD60C48D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FDAB29-3897-4ED0-A7B4-35A5498BF77D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0059C1F3-AEE7-419B-AC3E-088DB914A26E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,50 +1605,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337A3937-D9B7-48FD-92EF-06FA68994B91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1936,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B93542-EACE-497F-AEA9-983453B6CE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99597DB4-E64C-4DDB-99C1-CB6600F23985}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
